--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>822029.6000419739</v>
+        <v>849448.0953520107</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074006</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>606553.2040797167</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6927640.061369843</v>
+        <v>7459823.549141133</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>320.637243918837</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>101.0627853050546</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -719,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>72.13424985736026</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>159.0870598415701</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -877,7 +879,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>392.0383104905247</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>360.3511810743648</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1066,10 +1068,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>3.13954148002296</v>
+        <v>54.53682144529103</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1139,13 +1141,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>91.10659380671851</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>36.56453789817022</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1300,7 +1302,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1309,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>65.54144271872133</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,13 +1344,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>140.4342819615948</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1370,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>164.3911011219629</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>145.4261460119187</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.2022955251545</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>231.3643080165135</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1607,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>303.7900068265755</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>8.288589148411383</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1673,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1771,19 +1773,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>119.8634463900538</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>18.05677735225768</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1856,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2008,19 +2010,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>32.69681262526345</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2141,7 +2143,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2242,13 +2244,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>39.86022305741668</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -2257,7 +2259,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2299,7 +2301,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>61.08641542222794</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2488,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>3.139541480022588</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2965,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>249.4112747763488</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3196,7 +3198,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>14.14416275345333</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3436,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3512,7 +3514,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3667,13 +3669,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117665</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480026133</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735226066</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3752,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>271.7368624962564</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>167.3665460298589</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>134.0221111781899</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3916,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>153.2006427344288</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3977,10 +3979,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>306.316317889719</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3989,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>283.2157553309888</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4040,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>29.10461178738977</v>
+        <v>111.7936689725567</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1964.376123674746</v>
+        <v>1744.308896547786</v>
       </c>
       <c r="C2" t="n">
-        <v>1640.500119716325</v>
+        <v>1306.166423731209</v>
       </c>
       <c r="D2" t="n">
-        <v>1204.590334890769</v>
+        <v>870.2566389056537</v>
       </c>
       <c r="E2" t="n">
-        <v>770.8155900490646</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F2" t="n">
-        <v>342.9481604582723</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G2" t="n">
         <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>488.6559039815464</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M2" t="n">
-        <v>1149.495958523325</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N2" t="n">
-        <v>1149.495958523325</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O2" t="n">
         <v>1810.336013065103</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4358,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748444</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="V2" t="n">
-        <v>2410.838523748444</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="W2" t="n">
-        <v>2005.983069159478</v>
+        <v>2189.956246072921</v>
       </c>
       <c r="X2" t="n">
-        <v>1990.881009779192</v>
+        <v>2174.854186692636</v>
       </c>
       <c r="Y2" t="n">
-        <v>1986.63529011925</v>
+        <v>2170.608467032694</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I3" t="n">
-        <v>79.46488968908616</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J3" t="n">
-        <v>404.0232146552985</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K3" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L3" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N3" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O3" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q3" t="n">
-        <v>1599.468199913098</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>954.7136726652275</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>954.7136726652275</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
         <v>794.0196728252577</v>
@@ -4483,7 +4485,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4498,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4510,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2510.819457729424</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T4" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U4" t="n">
-        <v>1986.507010560985</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1699.551502431415</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W4" t="n">
-        <v>1427.525098017707</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="X4" t="n">
-        <v>1182.133343351119</v>
+        <v>1432.7419264702</v>
       </c>
       <c r="Y4" t="n">
-        <v>954.7136726652275</v>
+        <v>1205.322255784308</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.759173608573</v>
+        <v>936.2280884669775</v>
       </c>
       <c r="C5" t="n">
-        <v>1567.6571048324</v>
+        <v>540.2297950422051</v>
       </c>
       <c r="D5" t="n">
-        <v>1535.787724047249</v>
+        <v>508.3604142570537</v>
       </c>
       <c r="E5" t="n">
-        <v>1171.796632052941</v>
+        <v>478.6260734557529</v>
       </c>
       <c r="F5" t="n">
-        <v>743.9292024621484</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="L5" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="M5" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N5" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4595,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U5" t="n">
-        <v>2410.838523748444</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.221573682271</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="W5" t="n">
-        <v>2047.406523133708</v>
+        <v>1785.915842032517</v>
       </c>
       <c r="X5" t="n">
-        <v>2032.304463753423</v>
+        <v>1770.813782652232</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.018340053076</v>
+        <v>1362.527658951885</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4640,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J6" t="n">
-        <v>404.0232146552985</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K6" t="n">
-        <v>1058.729261281022</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="L6" t="n">
-        <v>1058.729261281022</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="M6" t="n">
-        <v>1058.729261281022</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="N6" t="n">
-        <v>1058.729261281022</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="O6" t="n">
-        <v>1058.729261281022</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.4772326516127</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="C7" t="n">
-        <v>568.9155211348376</v>
+        <v>760.7341398538248</v>
       </c>
       <c r="D7" t="n">
-        <v>403.0375283363603</v>
+        <v>594.8561470553475</v>
       </c>
       <c r="E7" t="n">
-        <v>233.2795245870976</v>
+        <v>425.0981433060848</v>
       </c>
       <c r="F7" t="n">
-        <v>56.57247054885377</v>
+        <v>248.391089267841</v>
       </c>
       <c r="G7" t="n">
-        <v>53.40121652862856</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2190.910269352854</v>
+        <v>981.4316298953097</v>
       </c>
       <c r="C8" t="n">
-        <v>1752.767796536277</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D8" t="n">
-        <v>1316.858011710722</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>883.0832668690169</v>
+        <v>77.64503145187678</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932282</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932282</v>
       </c>
       <c r="W8" t="n">
-        <v>2669.245775882865</v>
+        <v>2235.159787501254</v>
       </c>
       <c r="X8" t="n">
-        <v>2654.14371650258</v>
+        <v>1816.017324080564</v>
       </c>
       <c r="Y8" t="n">
-        <v>2617.209839837762</v>
+        <v>1407.731200380218</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4877,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>515.0619848335836</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>515.0619848335836</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>515.0619848335836</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>515.0619848335836</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>933.2958513705994</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>760.7341398538243</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>594.856147055347</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>425.0981433060843</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>425.0981433060843</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>259.506868331912</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>119.6046940222865</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4987,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T10" t="n">
-        <v>2489.401636434797</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U10" t="n">
-        <v>2210.968635687902</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>222.1780169516896</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>56.12639965677763</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>56.12639965677763</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>56.12639965677763</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>56.12639965677763</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677763</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096955</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>1396.102936374607</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M11" t="n">
-        <v>1396.102936374607</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="N11" t="n">
-        <v>1396.102936374607</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.668109022718</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T11" t="n">
-        <v>2502.600881895757</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U11" t="n">
-        <v>2243.378579212774</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V11" t="n">
-        <v>1880.7616291466</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W11" t="n">
-        <v>1475.906174557633</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X11" t="n">
-        <v>1056.763711136944</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y11" t="n">
-        <v>648.4775874365974</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>82.19007281723522</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J12" t="n">
-        <v>406.7483977834476</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K12" t="n">
-        <v>406.7483977834476</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L12" t="n">
-        <v>1061.454444409171</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M12" t="n">
-        <v>1061.454444409171</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="N12" t="n">
-        <v>1061.454444409171</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="O12" t="n">
-        <v>1061.454444409171</v>
+        <v>820.1139162241246</v>
       </c>
       <c r="P12" t="n">
-        <v>1061.454444409171</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1046.524611043334</v>
+        <v>1007.236984956563</v>
       </c>
       <c r="C13" t="n">
-        <v>873.9628995265592</v>
+        <v>834.6752734397877</v>
       </c>
       <c r="D13" t="n">
-        <v>708.0849067280819</v>
+        <v>668.7972806413104</v>
       </c>
       <c r="E13" t="n">
-        <v>538.3269029788192</v>
+        <v>499.0392768920476</v>
       </c>
       <c r="F13" t="n">
-        <v>361.6198489405755</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="G13" t="n">
-        <v>196.0285739664031</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677763</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2516.016014079623</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T13" t="n">
-        <v>2270.136567658079</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U13" t="n">
-        <v>2270.136567658079</v>
+        <v>2230.848941571307</v>
       </c>
       <c r="V13" t="n">
-        <v>1983.181059528509</v>
+        <v>1943.893433441738</v>
       </c>
       <c r="W13" t="n">
-        <v>1711.154655114801</v>
+        <v>1671.867029028029</v>
       </c>
       <c r="X13" t="n">
-        <v>1465.762900448213</v>
+        <v>1426.475274361442</v>
       </c>
       <c r="Y13" t="n">
-        <v>1238.343229762321</v>
+        <v>1199.05560367555</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>925.8109293240379</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C14" t="n">
-        <v>925.8109293240379</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D14" t="n">
-        <v>489.9011444984824</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E14" t="n">
-        <v>56.12639965677763</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F14" t="n">
-        <v>56.12639965677763</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096955</v>
+        <v>254.9523156162913</v>
       </c>
       <c r="K14" t="n">
-        <v>491.3810871096955</v>
+        <v>1089.302607574469</v>
       </c>
       <c r="L14" t="n">
-        <v>1185.945282862319</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="M14" t="n">
-        <v>1880.509478614942</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="N14" t="n">
-        <v>2575.073674367565</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O14" t="n">
-        <v>2637.165918085825</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P14" t="n">
-        <v>2637.165918085825</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T14" t="n">
-        <v>2797.947670567759</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U14" t="n">
-        <v>2538.725367884776</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V14" t="n">
-        <v>2176.108417818602</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W14" t="n">
-        <v>1771.252963229635</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X14" t="n">
-        <v>1352.110499808946</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y14" t="n">
-        <v>1352.110499808946</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>82.19007281723522</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J15" t="n">
-        <v>406.7483977834476</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K15" t="n">
-        <v>1061.454444409171</v>
+        <v>774.5036193892311</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.454444409171</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="M15" t="n">
-        <v>1061.454444409171</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="N15" t="n">
-        <v>1061.454444409171</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="O15" t="n">
-        <v>1061.454444409171</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>924.8616057763934</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C16" t="n">
-        <v>752.2998942596183</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D16" t="n">
-        <v>586.421901461141</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E16" t="n">
-        <v>416.6638977118783</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="F16" t="n">
-        <v>239.9568436736345</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="G16" t="n">
-        <v>74.36556869946216</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677763</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2672.786009559577</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2426.906563138033</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>2148.473562391138</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>1861.518054261568</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W16" t="n">
-        <v>1589.49164984786</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X16" t="n">
-        <v>1344.099895181272</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y16" t="n">
-        <v>1116.680224495381</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5516,19 +5518,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1694.563362934248</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3800.474012941002</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
@@ -5540,25 +5542,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>418.8700686186489</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>242.1630145804051</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5756,10 +5758,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1431.851786213077</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5777,16 +5779,16 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257732</v>
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>577.5122933038401</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>407.7542895545774</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6002,13 +6004,13 @@
         <v>4294.449917128814</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>282.1391483292483</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F25" t="n">
-        <v>105.4320942910045</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>3654.644638328873</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>4634.82430489918</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4634.82430489918</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,16 +6466,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>775.023562068816</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>1850.083528321675</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>3007.131363532226</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>4132.862346968673</v>
       </c>
       <c r="O29" t="n">
         <v>5113.04201353898</v>
@@ -6488,25 +6490,25 @@
         <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>3486.780615022739</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>3314.218903505964</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>3148.340910707486</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>2978.582906958224</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>2801.87585291998</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>2636.284577945808</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>4953.800644836978</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>4953.800644836978</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>4675.367644090084</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>4423.437063507913</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>4151.410659094205</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>3906.018904427618</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>3678.599233741726</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,19 +6703,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F34" t="n">
         <v>267.852115244952</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,19 +6940,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M36" t="n">
-        <v>531.6733301892817</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
         <v>793.2056155771595</v>
@@ -7172,22 +7174,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L38" t="n">
-        <v>1371.865819681875</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M38" t="n">
-        <v>2528.913654892426</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N38" t="n">
-        <v>3654.644638328873</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O38" t="n">
-        <v>4634.82430489918</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P38" t="n">
         <v>5113.042013538981</v>
@@ -7199,25 +7201,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7253,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292518</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>105.432094291008</v>
       </c>
       <c r="G40" t="n">
         <v>102.2608402707796</v>
@@ -7333,49 +7335,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066082</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745692</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955482</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338908</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.72767530925</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173582</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173582</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1791.820831731407</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C41" t="n">
-        <v>1353.67835891483</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D41" t="n">
-        <v>917.7685740892747</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E41" t="n">
-        <v>483.9938292475699</v>
+        <v>796.5359975716538</v>
       </c>
       <c r="F41" t="n">
-        <v>56.12639965677763</v>
+        <v>368.6685679808615</v>
       </c>
       <c r="G41" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K41" t="n">
-        <v>56.12639965677763</v>
+        <v>350.4865144725186</v>
       </c>
       <c r="L41" t="n">
-        <v>750.6905954094008</v>
+        <v>1425.546480725378</v>
       </c>
       <c r="M41" t="n">
-        <v>750.6905954094008</v>
+        <v>2582.594315935929</v>
       </c>
       <c r="N41" t="n">
-        <v>1445.254791162024</v>
+        <v>3708.325299372376</v>
       </c>
       <c r="O41" t="n">
-        <v>2139.818986914647</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="P41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U41" t="n">
-        <v>2806.319982838882</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V41" t="n">
-        <v>2806.319982838882</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W41" t="n">
-        <v>2637.262865637004</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X41" t="n">
-        <v>2218.120402216315</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y41" t="n">
-        <v>2218.120402216315</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>3531.436949455166</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>3424.980488291808</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>3329.890199438361</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>3235.769784765315</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>3152.385946381477</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>3067.000856647661</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677763</v>
+        <v>3025.265204463873</v>
       </c>
       <c r="I42" t="n">
-        <v>56.12639965677763</v>
+        <v>3051.328877624331</v>
       </c>
       <c r="J42" t="n">
-        <v>380.68472462299</v>
+        <v>3375.887202590544</v>
       </c>
       <c r="K42" t="n">
-        <v>380.68472462299</v>
+        <v>4030.593249216267</v>
       </c>
       <c r="L42" t="n">
-        <v>380.68472462299</v>
+        <v>4030.593249216267</v>
       </c>
       <c r="M42" t="n">
-        <v>1061.454444409171</v>
+        <v>4030.593249216267</v>
       </c>
       <c r="N42" t="n">
-        <v>1061.454444409171</v>
+        <v>4030.593249216267</v>
       </c>
       <c r="O42" t="n">
-        <v>1061.454444409171</v>
+        <v>4030.593249216267</v>
       </c>
       <c r="P42" t="n">
-        <v>1061.454444409171</v>
+        <v>4030.593249216267</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>4571.332187848342</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>4625.049528391065</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>4494.870884721667</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>4318.534337721635</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>4119.416819783634</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>3934.094065516828</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>3779.226629755708</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>3652.740850534929</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1135.184560268659</v>
+        <v>1084.16831070541</v>
       </c>
       <c r="C43" t="n">
-        <v>962.6228487518839</v>
+        <v>911.6065991886352</v>
       </c>
       <c r="D43" t="n">
-        <v>796.7448559534066</v>
+        <v>745.7286063901579</v>
       </c>
       <c r="E43" t="n">
-        <v>626.9868522041439</v>
+        <v>575.9706026408952</v>
       </c>
       <c r="F43" t="n">
-        <v>450.2797981659001</v>
+        <v>399.2635486026514</v>
       </c>
       <c r="G43" t="n">
-        <v>284.6885231917278</v>
+        <v>233.6722736284791</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2672.786009559577</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2513.544640857574</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T43" t="n">
-        <v>2513.544640857574</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="U43" t="n">
-        <v>2358.796516883403</v>
+        <v>2251.337518478127</v>
       </c>
       <c r="V43" t="n">
-        <v>2071.841008753834</v>
+        <v>1964.382010348558</v>
       </c>
       <c r="W43" t="n">
-        <v>1799.814604340125</v>
+        <v>1692.355605934849</v>
       </c>
       <c r="X43" t="n">
-        <v>1554.422849673538</v>
+        <v>1446.963851268262</v>
       </c>
       <c r="Y43" t="n">
-        <v>1327.003178987646</v>
+        <v>1219.54418058237</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1204.261883998487</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C44" t="n">
-        <v>1204.261883998487</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D44" t="n">
-        <v>1204.261883998487</v>
+        <v>1356.810105128087</v>
       </c>
       <c r="E44" t="n">
-        <v>770.4871391567822</v>
+        <v>923.035360286382</v>
       </c>
       <c r="F44" t="n">
-        <v>342.6197095659899</v>
+        <v>495.1679306955898</v>
       </c>
       <c r="G44" t="n">
-        <v>342.6197095659899</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H44" t="n">
-        <v>56.54318902963762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L44" t="n">
-        <v>750.6905954094008</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M44" t="n">
-        <v>1248.037526580578</v>
+        <v>1250.817934529405</v>
       </c>
       <c r="N44" t="n">
-        <v>1942.601722333201</v>
+        <v>2376.548917965851</v>
       </c>
       <c r="O44" t="n">
-        <v>1942.601722333201</v>
+        <v>3356.728584536158</v>
       </c>
       <c r="P44" t="n">
-        <v>2637.165918085825</v>
+        <v>4185.038459369553</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085825</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T44" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U44" t="n">
-        <v>2806.319982838882</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V44" t="n">
-        <v>2443.703032772708</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W44" t="n">
-        <v>2038.847578183741</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X44" t="n">
-        <v>2038.847578183741</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y44" t="n">
-        <v>1630.561454483395</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
-        <v>56.12639965677763</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>56.12639965677763</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>330.2377696303402</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>1024.801965382963</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>1719.366161135586</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>1719.366161135586</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>1719.366161135586</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>1719.366161135586</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>936.021034498749</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C46" t="n">
-        <v>763.459322981974</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D46" t="n">
-        <v>597.5813301834967</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="E46" t="n">
-        <v>427.8233264342339</v>
+        <v>460.9442214704281</v>
       </c>
       <c r="F46" t="n">
-        <v>251.1162723959901</v>
+        <v>460.9442214704281</v>
       </c>
       <c r="G46" t="n">
-        <v>85.5249974218178</v>
+        <v>295.3529464962558</v>
       </c>
       <c r="H46" t="n">
-        <v>56.12639965677763</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T46" t="n">
-        <v>2246.247373141401</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U46" t="n">
-        <v>1967.814372394506</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V46" t="n">
-        <v>1680.858864264937</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W46" t="n">
-        <v>1408.832459851228</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X46" t="n">
-        <v>1163.440705184641</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y46" t="n">
-        <v>936.021034498749</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8058,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8143,7 +8145,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645589</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -8216,10 +8218,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158827</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8453,7 +8455,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8526,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>466.3240083888435</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,22 +8692,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>212.2804580932202</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8763,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>733.6806231366373</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>162.8103194923613</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>62.71943809925187</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9000,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,22 +9166,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>602.9445958447764</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,13 +9406,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>664.5938549921407</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9650,7 +9652,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446122</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9711,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>118.392906878933</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9887,16 +9889,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>312.1854988754994</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,22 +9956,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465014</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10185,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10361,7 +10363,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,10 +10588,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>922.699389992646</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10659,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10838,7 +10840,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>483.0481905452543</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10899,19 +10901,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,22 +11062,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>259.3095102562272</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097205</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>673.2333292163985</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11133,19 +11135,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11300,25 +11302,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>502.3706375466439</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097204</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>508.5520268415439</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,19 +11372,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>276.8801716904672</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11394,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>269.3699469664481</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>111.2039336442346</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>2.446659489828761</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>44.28436272291216</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>125.6469905667122</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.5779657072804</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>48.19697732171628</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>120.4463752142715</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>135.3636110865067</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>124.3589898130759</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>208.2197249473434</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>160.795820744408</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,16 +24888,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>34.67467827192507</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>160.7958207444045</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627226</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>125.6469905667124</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>233.4403540132182</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>55.8783213536073</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>122.4480280049969</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25865,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>125.2343690875809</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>3.023097680227124</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>109.3985407791395</v>
+        <v>26.70948359397255</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>436954.8463457652</v>
+        <v>619094.0865582564</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>436954.8463457652</v>
+        <v>619094.0865582563</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>660176.5816293476</v>
+        <v>660176.5816293478</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>436954.8463457652</v>
+        <v>619094.0865582564</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>436954.8463457652</v>
+        <v>619094.0865582564</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348495.7579287654</v>
+        <v>348495.7579287656</v>
       </c>
       <c r="C2" t="n">
         <v>348495.7579287653</v>
@@ -26320,13 +26322,13 @@
         <v>348495.7579287655</v>
       </c>
       <c r="E2" t="n">
-        <v>226664.2557973349</v>
+        <v>321146.4561425571</v>
       </c>
       <c r="F2" t="n">
-        <v>226664.2557973349</v>
+        <v>321146.456142557</v>
       </c>
       <c r="G2" t="n">
-        <v>342457.4296892789</v>
+        <v>342457.429689279</v>
       </c>
       <c r="H2" t="n">
         <v>342457.429689279</v>
@@ -26338,7 +26340,7 @@
         <v>342457.429689279</v>
       </c>
       <c r="K2" t="n">
-        <v>342457.429689279</v>
+        <v>342457.4296892791</v>
       </c>
       <c r="L2" t="n">
         <v>342457.429689279</v>
@@ -26350,10 +26352,10 @@
         <v>342457.4296892791</v>
       </c>
       <c r="O2" t="n">
-        <v>226664.2557973349</v>
+        <v>321146.4561425569</v>
       </c>
       <c r="P2" t="n">
-        <v>226664.2557973349</v>
+        <v>321146.456142557</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045619</v>
+        <v>150665.7535717478</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340786</v>
+        <v>125751.0883356906</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165263.0882595585</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="C4" t="n">
         <v>165263.0882595584</v>
@@ -26424,25 +26426,25 @@
         <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>53902.87451562436</v>
+        <v>76371.62315556087</v>
       </c>
       <c r="F4" t="n">
-        <v>53902.87451562437</v>
+        <v>76371.62315556087</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904286</v>
       </c>
       <c r="H4" t="n">
         <v>81439.57146904284</v>
       </c>
       <c r="I4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="K4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904281</v>
       </c>
       <c r="L4" t="n">
         <v>81439.57146904283</v>
@@ -26451,13 +26453,13 @@
         <v>81439.57146904283</v>
       </c>
       <c r="N4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="O4" t="n">
-        <v>53902.87451562436</v>
+        <v>76371.62315556085</v>
       </c>
       <c r="P4" t="n">
-        <v>53902.87451562435</v>
+        <v>76371.62315556087</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-114679.5534765956</v>
+        <v>-114679.5534765954</v>
       </c>
       <c r="C6" t="n">
         <v>109020.1451074492</v>
@@ -26528,22 +26530,22 @@
         <v>109020.1451074494</v>
       </c>
       <c r="E6" t="n">
-        <v>119934.3209421033</v>
+        <v>22843.80393291965</v>
       </c>
       <c r="F6" t="n">
-        <v>130105.3175425596</v>
+        <v>173509.5575046674</v>
       </c>
       <c r="G6" t="n">
-        <v>25240.14266833436</v>
+        <v>154209.8104418357</v>
       </c>
       <c r="H6" t="n">
         <v>183299.6196144436</v>
       </c>
       <c r="I6" t="n">
-        <v>183299.6196144437</v>
+        <v>183299.6196144436</v>
       </c>
       <c r="J6" t="n">
-        <v>8648.270896737522</v>
+        <v>8648.270896737478</v>
       </c>
       <c r="K6" t="n">
         <v>183299.6196144437</v>
@@ -26552,16 +26554,16 @@
         <v>183299.6196144437</v>
       </c>
       <c r="M6" t="n">
-        <v>174810.5379111028</v>
+        <v>57548.53127875301</v>
       </c>
       <c r="N6" t="n">
-        <v>183299.6196144438</v>
+        <v>183299.6196144437</v>
       </c>
       <c r="O6" t="n">
-        <v>130105.3175425595</v>
+        <v>173509.5575046673</v>
       </c>
       <c r="P6" t="n">
-        <v>130105.3175425595</v>
+        <v>173509.5575046673</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778135</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778135</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778135</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>328.3742120882331</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>113.1238041695739</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27441,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>117.766182674437</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5.132153028922403</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>41.72273759788624</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>69.08581631892292</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27667,16 +27669,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>160.7958207444076</v>
+        <v>109.3985407791396</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27859,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>309.7003062363585</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>367.6387245651729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>22.23190701435009</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,13 +28064,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>143.651671086679</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -30271,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-2.779647469158316e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30405,7 +30407,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.205021433435225e-12</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -34699,22 +34701,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34799,7 +34801,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34863,7 +34865,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645589</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34936,10 +34938,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158827</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35030,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35173,7 +35175,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>466.3240083888435</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35343,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>212.2804580932202</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>733.6806231366373</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>162.8103194923613</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>62.71943809925187</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35884,22 +35886,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>602.9445958447764</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,13 +36126,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>664.5938549921407</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36370,7 +36372,7 @@
         <v>1137.102003471158</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446122</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>118.392906878933</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>312.1854988754994</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465014</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36920,19 +36922,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,13 +37080,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>-6.786426882829224e-13</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,10 +37308,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>922.699389992646</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37558,7 +37560,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>483.0481905452543</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37619,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,7 +37703,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960997</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
@@ -37780,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>259.3095102562272</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097205</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>673.2333292163985</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37853,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38020,25 +38022,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>502.3706375466439</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097204</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>508.5520268415439</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>276.8801716904672</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38114,10 +38116,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>849448.0953520107</v>
+        <v>848842.0077231136</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074006</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797167</v>
+        <v>606553.2040797165</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
@@ -667,19 +667,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>101.0627853050546</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>244.0438870750952</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.13424985736026</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -828,7 +828,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -879,13 +879,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>13.0131344328856</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>418.7069096796287</v>
       </c>
       <c r="C5" t="n">
-        <v>392.0383104905247</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -910,7 +910,7 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1068,7 +1068,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>54.53682144529103</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1138,10 +1138,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>131.1371372363541</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>91.10659380671851</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1302,7 +1302,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1311,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>65.54144271872133</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1372,7 +1372,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>426.4910884529575</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1390,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>145.4261460119187</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1542,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765157</v>
       </c>
       <c r="U13" t="n">
-        <v>231.3643080165135</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1615,7 +1615,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>303.7900068265755</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>175.4475408461118</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1770,16 +1770,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.8634463900538</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1821,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>242.0596273593621</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1858,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -2007,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>82.43648595643971</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2301,7 +2301,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>61.08641542222794</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2490,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2967,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>249.4112747763488</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3198,7 +3198,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3435,10 +3435,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>14.14416275345333</v>
       </c>
       <c r="G37" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3508,13 +3508,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
@@ -3666,22 +3666,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117665</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>3.139541480026133</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>221.3930136939207</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790288</v>
       </c>
     </row>
     <row r="41">
@@ -3754,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>271.7368624962564</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3793,7 +3793,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3805,7 +3805,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>220.931750064246</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>134.0221111781899</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3982,7 +3982,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>306.316317889719</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3994,10 +3994,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>62.61079093391727</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4140,22 +4140,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H46" t="n">
-        <v>111.7936689725567</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1744.308896547786</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="C2" t="n">
-        <v>1306.166423731209</v>
+        <v>1640.083330343465</v>
       </c>
       <c r="D2" t="n">
-        <v>870.2566389056537</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E2" t="n">
-        <v>768.1730173853965</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F2" t="n">
-        <v>744.3459918350084</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
@@ -4336,46 +4336,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.993599304467</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U2" t="n">
-        <v>2190.771296621484</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V2" t="n">
-        <v>2190.771296621484</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W2" t="n">
-        <v>2189.956246072921</v>
+        <v>2119.832748644773</v>
       </c>
       <c r="X2" t="n">
-        <v>2174.854186692636</v>
+        <v>2104.730689264488</v>
       </c>
       <c r="Y2" t="n">
-        <v>2170.608467032694</v>
+        <v>2100.484969604545</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>2012.149109705013</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>2012.149109705013</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>2012.149109705013</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>2012.149109705013</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>2012.149109705013</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>955.7523231022661</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>783.1906115854911</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>617.3126187870138</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F4" t="n">
         <v>447.554615037751</v>
@@ -4485,7 +4485,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1678.133681136788</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1432.7419264702</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1205.322255784308</v>
+        <v>1147.570941821253</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>936.2280884669775</v>
+        <v>576.9744364820456</v>
       </c>
       <c r="C5" t="n">
-        <v>540.2297950422051</v>
+        <v>542.872367705873</v>
       </c>
       <c r="D5" t="n">
-        <v>508.3604142570537</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>478.6260734557529</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>454.7990479053647</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4597,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304467</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2190.771296621484</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>2190.771296621484</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>1785.915842032517</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X5" t="n">
-        <v>1770.813782652232</v>
+        <v>1408.196832586058</v>
       </c>
       <c r="Y5" t="n">
-        <v>1362.527658951885</v>
+        <v>999.910708885711</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>933.2958513705998</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C7" t="n">
-        <v>760.7341398538248</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>594.8561470553475</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>425.0981433060848</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>248.391089267841</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
         <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705998</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>981.4316298953097</v>
+        <v>969.2487943945847</v>
       </c>
       <c r="C8" t="n">
-        <v>543.2891570787331</v>
+        <v>531.106321578008</v>
       </c>
       <c r="D8" t="n">
-        <v>107.3793722531775</v>
+        <v>499.2369407928566</v>
       </c>
       <c r="E8" t="n">
-        <v>77.64503145187678</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4837,19 +4837,19 @@
         <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.186649932282</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>2327.186649932282</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W8" t="n">
-        <v>2235.159787501254</v>
+        <v>1818.936547960124</v>
       </c>
       <c r="X8" t="n">
-        <v>1816.017324080564</v>
+        <v>1803.834488579839</v>
       </c>
       <c r="Y8" t="n">
-        <v>1407.731200380218</v>
+        <v>1395.548364879493</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>933.2958513705994</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>760.7341398538243</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>594.856147055347</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>425.0981433060843</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>425.0981433060843</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>259.506868331912</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>119.6046940222865</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434796</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013251</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136787</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056491</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705994</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2520.409306699863</v>
+        <v>2512.649123755838</v>
       </c>
       <c r="C11" t="n">
-        <v>2082.266833883286</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.357049057731</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E11" t="n">
-        <v>1212.582304216026</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F11" t="n">
-        <v>784.7148746252335</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G11" t="n">
-        <v>383.3170432484974</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171365</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I11" t="n">
         <v>93.77009931885365</v>
@@ -5047,13 +5047,13 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>1363.37507872995</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M11" t="n">
-        <v>1363.37507872995</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="N11" t="n">
-        <v>2164.362573827329</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="O11" t="n">
         <v>3144.542240397635</v>
@@ -5068,25 +5068,25 @@
         <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>4688.504965942682</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T11" t="n">
-        <v>4688.504965942682</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U11" t="n">
-        <v>4541.609868960946</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V11" t="n">
-        <v>4178.992918894773</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W11" t="n">
-        <v>3774.137464305806</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X11" t="n">
-        <v>3354.995000885117</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y11" t="n">
-        <v>2946.70887718477</v>
+        <v>2938.948694240745</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885365</v>
+        <v>93.80629903465757</v>
       </c>
       <c r="J12" t="n">
-        <v>93.77009931885365</v>
+        <v>418.3646240008699</v>
       </c>
       <c r="K12" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L12" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M12" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N12" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O12" t="n">
-        <v>820.1139162241246</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
         <v>1639.837082703323</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1007.236984956563</v>
+        <v>1032.926085621109</v>
       </c>
       <c r="C13" t="n">
-        <v>834.6752734397877</v>
+        <v>860.3643741043344</v>
       </c>
       <c r="D13" t="n">
-        <v>668.7972806413104</v>
+        <v>694.4863813058571</v>
       </c>
       <c r="E13" t="n">
-        <v>499.0392768920476</v>
+        <v>524.7283775565944</v>
       </c>
       <c r="F13" t="n">
-        <v>322.3322228538038</v>
+        <v>348.0213235183506</v>
       </c>
       <c r="G13" t="n">
-        <v>322.3322228538038</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="H13" t="n">
         <v>182.4300485441783</v>
@@ -5229,22 +5229,22 @@
         <v>2710.429709221653</v>
       </c>
       <c r="T13" t="n">
-        <v>2464.550262800109</v>
+        <v>2534.971042982749</v>
       </c>
       <c r="U13" t="n">
-        <v>2230.848941571307</v>
+        <v>2256.538042235854</v>
       </c>
       <c r="V13" t="n">
-        <v>1943.893433441738</v>
+        <v>1969.582534106284</v>
       </c>
       <c r="W13" t="n">
-        <v>1671.867029028029</v>
+        <v>1697.556129692576</v>
       </c>
       <c r="X13" t="n">
-        <v>1426.475274361442</v>
+        <v>1452.164375025988</v>
       </c>
       <c r="Y13" t="n">
-        <v>1199.05560367555</v>
+        <v>1224.744704340097</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2104.363000055491</v>
+        <v>2230.862362770219</v>
       </c>
       <c r="C14" t="n">
-        <v>1666.220527238914</v>
+        <v>1792.719889953642</v>
       </c>
       <c r="D14" t="n">
-        <v>1230.310742413359</v>
+        <v>1356.810105128087</v>
       </c>
       <c r="E14" t="n">
-        <v>923.452149659242</v>
+        <v>923.035360286382</v>
       </c>
       <c r="F14" t="n">
-        <v>495.5847200684498</v>
+        <v>495.1679306955898</v>
       </c>
       <c r="G14" t="n">
-        <v>94.18688869171365</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H14" t="n">
-        <v>94.18688869171365</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I14" t="n">
         <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>254.9523156162913</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>1089.302607574469</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>2164.362573827329</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M14" t="n">
-        <v>2164.362573827329</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N14" t="n">
-        <v>2164.362573827329</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397635</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R14" t="n">
         <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>4604.853092126519</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T14" t="n">
-        <v>4384.785864999558</v>
+        <v>4511.285227714287</v>
       </c>
       <c r="U14" t="n">
-        <v>4125.563562316574</v>
+        <v>4252.062925031303</v>
       </c>
       <c r="V14" t="n">
-        <v>3762.946612250401</v>
+        <v>3889.44597496513</v>
       </c>
       <c r="W14" t="n">
-        <v>3358.091157661434</v>
+        <v>3484.590520376163</v>
       </c>
       <c r="X14" t="n">
-        <v>2938.948694240745</v>
+        <v>3065.448056955473</v>
       </c>
       <c r="Y14" t="n">
-        <v>2530.662570540399</v>
+        <v>2657.161933255127</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>774.5036193892311</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>1216.270922165587</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>1216.270922165587</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>1216.270922165587</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1216.270922165587</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
-        <v>1216.270922165587</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
         <v>1757.009860797662</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.8461154418378</v>
+        <v>837.192263382995</v>
       </c>
       <c r="C16" t="n">
-        <v>609.2844039250627</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="D16" t="n">
-        <v>443.4064111265855</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="E16" t="n">
-        <v>322.3322228538038</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F16" t="n">
-        <v>322.3322228538038</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G16" t="n">
         <v>322.3322228538038</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2529.770519225022</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T16" t="n">
-        <v>2283.891072803477</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U16" t="n">
-        <v>2005.458072056582</v>
+        <v>2060.804219997739</v>
       </c>
       <c r="V16" t="n">
-        <v>1718.502563927013</v>
+        <v>1773.84871186817</v>
       </c>
       <c r="W16" t="n">
-        <v>1446.476159513304</v>
+        <v>1501.822307454461</v>
       </c>
       <c r="X16" t="n">
-        <v>1201.084404846717</v>
+        <v>1256.430552787874</v>
       </c>
       <c r="Y16" t="n">
-        <v>973.664734160825</v>
+        <v>1029.010882101982</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5591,13 +5591,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
         <v>1107.588885023173</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D19" t="n">
         <v>842.8792965674086</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1952.097456569358</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1680.07105215565</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1434.679297489062</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="20">
@@ -5761,7 +5761,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6232,19 +6232,19 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2528.913654892426</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>3654.644638328873</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4634.82430489918</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4634.82430489918</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6466,49 +6466,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.023562068816</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321675</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532226</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968673</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6539,10 +6539,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K30" t="n">
         <v>1107.588885023173</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3486.780615022739</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>3314.218903505964</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>3148.340910707486</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>2978.582906958224</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>2801.87585291998</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>2636.284577945808</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>4953.800644836978</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>4953.800644836978</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>4675.367644090084</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>4423.437063507913</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>4151.410659094205</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>3906.018904427618</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>3678.599233741726</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
         <v>267.852115244952</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6943,19 +6943,19 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321677</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
         <v>5113.04201353898</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7083,7 +7083,7 @@
         <v>282.1391483292483</v>
       </c>
       <c r="F37" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
         <v>102.2608402707796</v>
@@ -7156,10 +7156,10 @@
         <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
         <v>793.2056155771595</v>
@@ -7174,28 +7174,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7250,25 +7250,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>838.7339540459399</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1391483292518</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F40" t="n">
-        <v>105.432094291008</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7371,13 +7371,13 @@
         <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1503.363998117402</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1257.972243450815</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1030.552572764927</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2104.363000055491</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C41" t="n">
-        <v>1666.220527238914</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>1230.310742413359</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>796.5359975716538</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>368.6685679808615</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>94.18688869171365</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
         <v>94.18688869171365</v>
@@ -7411,25 +7411,25 @@
         <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>93.77009931885365</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>350.4865144725186</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>1425.546480725378</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>2582.594315935929</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>3708.325299372376</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>4688.504965942682</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P41" t="n">
-        <v>4688.504965942682</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q41" t="n">
         <v>4688.504965942682</v>
@@ -7441,22 +7441,22 @@
         <v>4604.853092126519</v>
       </c>
       <c r="T41" t="n">
-        <v>4384.785864999558</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="U41" t="n">
-        <v>4125.563562316574</v>
+        <v>4345.630789443536</v>
       </c>
       <c r="V41" t="n">
-        <v>3762.946612250401</v>
+        <v>3983.013839377362</v>
       </c>
       <c r="W41" t="n">
-        <v>3358.091157661434</v>
+        <v>3578.158384788396</v>
       </c>
       <c r="X41" t="n">
-        <v>2938.948694240745</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2530.662570540399</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3531.436949455166</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>3424.980488291808</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
-        <v>3329.890199438361</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>3235.769784765315</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>3152.385946381477</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>3067.000856647661</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>3025.265204463873</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>3051.328877624331</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>3375.887202590544</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>4030.593249216267</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>4030.593249216267</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>4030.593249216267</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>4030.593249216267</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>4030.593249216267</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>4030.593249216267</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>4571.332187848342</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>4688.504965942682</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>4625.049528391065</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
-        <v>4494.870884721667</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>4318.534337721635</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
-        <v>4119.416819783634</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>3934.094065516828</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>3779.226629755708</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>3652.740850534929</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1084.16831070541</v>
+        <v>944.2661363957848</v>
       </c>
       <c r="C43" t="n">
-        <v>911.6065991886352</v>
+        <v>771.7044248790097</v>
       </c>
       <c r="D43" t="n">
-        <v>745.7286063901579</v>
+        <v>605.8264320805324</v>
       </c>
       <c r="E43" t="n">
-        <v>575.9706026408952</v>
+        <v>436.0684283312697</v>
       </c>
       <c r="F43" t="n">
-        <v>399.2635486026514</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G43" t="n">
-        <v>233.6722736284791</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H43" t="n">
         <v>93.77009931885365</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2529.770519225022</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T43" t="n">
-        <v>2529.770519225022</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U43" t="n">
-        <v>2251.337518478127</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V43" t="n">
-        <v>1964.382010348558</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W43" t="n">
-        <v>1692.355605934849</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X43" t="n">
-        <v>1446.963851268262</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y43" t="n">
-        <v>1219.54418058237</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2104.363000055491</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C44" t="n">
-        <v>1666.220527238914</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>1356.810105128087</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>923.035360286382</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>495.1679306955898</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>93.77009931885365</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I44" t="n">
         <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>93.77009931885365</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>93.77009931885365</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>93.77009931885365</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M44" t="n">
-        <v>1250.817934529405</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N44" t="n">
-        <v>2376.548917965851</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>3356.728584536158</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P44" t="n">
-        <v>4185.038459369553</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q44" t="n">
         <v>4688.504965942682</v>
@@ -7678,22 +7678,22 @@
         <v>4604.853092126519</v>
       </c>
       <c r="T44" t="n">
-        <v>4384.785864999558</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="U44" t="n">
-        <v>4125.563562316574</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V44" t="n">
-        <v>3762.946612250401</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W44" t="n">
-        <v>3358.091157661434</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X44" t="n">
-        <v>2938.948694240745</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2530.662570540399</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.2639367364659</v>
+        <v>941.0874841438413</v>
       </c>
       <c r="C46" t="n">
-        <v>630.7022252196908</v>
+        <v>768.5257726270662</v>
       </c>
       <c r="D46" t="n">
-        <v>630.7022252196908</v>
+        <v>602.6477798285889</v>
       </c>
       <c r="E46" t="n">
-        <v>460.9442214704281</v>
+        <v>432.8897760793262</v>
       </c>
       <c r="F46" t="n">
-        <v>460.9442214704281</v>
+        <v>256.1827220410823</v>
       </c>
       <c r="G46" t="n">
-        <v>295.3529464962558</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H46" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I46" t="n">
         <v>93.77009931885365</v>
@@ -7830,28 +7830,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2551.18834051965</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="T46" t="n">
-        <v>2305.308894098105</v>
+        <v>2443.132441505481</v>
       </c>
       <c r="U46" t="n">
-        <v>2026.87589335121</v>
+        <v>2164.699440758586</v>
       </c>
       <c r="V46" t="n">
-        <v>1739.920385221641</v>
+        <v>1877.743932629016</v>
       </c>
       <c r="W46" t="n">
-        <v>1467.893980807932</v>
+        <v>1605.717528215308</v>
       </c>
       <c r="X46" t="n">
-        <v>1222.502226141345</v>
+        <v>1360.32577354872</v>
       </c>
       <c r="Y46" t="n">
-        <v>995.0825554554531</v>
+        <v>1132.906102862828</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8060,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158822</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8145,7 +8145,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -8157,7 +8157,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8230,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8464,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8695,16 +8695,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>713.2395913281071</v>
       </c>
       <c r="N11" t="n">
-        <v>809.0782778761404</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.0365653694989021</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>733.6806231366373</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>162.8103194923613</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9409,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9646,22 +9646,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9880,22 +9880,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>312.1854988754994</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465014</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,22 +10430,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10591,22 +10591,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>922.699389992646</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>259.3095102562272</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.319239015882</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>508.5520268415439</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.269959635453461</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>111.2039336442346</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>69.71657238081363</v>
       </c>
       <c r="U13" t="n">
-        <v>44.28436272291216</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>125.6469905667122</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>42.41901400958</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>48.19697732171628</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>33.58904338006366</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>201.6494670918341</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24888,16 +24888,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>34.67467827192507</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="G37" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>160.7958207444045</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>47.91312667565066</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>125.6469905667124</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>194.0192887222364</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.8783213536073</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>125.2343690875809</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>155.2557639217745</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3.146865729424206</v>
       </c>
       <c r="H46" t="n">
-        <v>26.70948359397255</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>619094.0865582564</v>
+        <v>619094.0865582565</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>619094.0865582563</v>
+        <v>619094.0865582564</v>
       </c>
     </row>
     <row r="7">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>619094.0865582564</v>
+        <v>619094.0865582565</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>619094.0865582564</v>
+        <v>619094.0865582565</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348495.7579287656</v>
+        <v>348495.7579287655</v>
       </c>
       <c r="C2" t="n">
-        <v>348495.7579287653</v>
+        <v>348495.7579287654</v>
       </c>
       <c r="D2" t="n">
         <v>348495.7579287655</v>
       </c>
       <c r="E2" t="n">
-        <v>321146.4561425571</v>
+        <v>321146.456142557</v>
       </c>
       <c r="F2" t="n">
         <v>321146.456142557</v>
@@ -26337,13 +26337,13 @@
         <v>342457.429689279</v>
       </c>
       <c r="J2" t="n">
+        <v>342457.4296892789</v>
+      </c>
+      <c r="K2" t="n">
         <v>342457.429689279</v>
       </c>
-      <c r="K2" t="n">
-        <v>342457.4296892791</v>
-      </c>
       <c r="L2" t="n">
-        <v>342457.429689279</v>
+        <v>342457.4296892789</v>
       </c>
       <c r="M2" t="n">
         <v>342457.429689279</v>
@@ -26352,10 +26352,10 @@
         <v>342457.4296892791</v>
       </c>
       <c r="O2" t="n">
-        <v>321146.4561425569</v>
+        <v>321146.456142557</v>
       </c>
       <c r="P2" t="n">
-        <v>321146.456142557</v>
+        <v>321146.4561425571</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717478</v>
+        <v>150665.7535717479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356906</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,19 +26432,19 @@
         <v>76371.62315556087</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="I4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
-        <v>81439.57146904281</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
         <v>81439.57146904283</v>
@@ -26456,7 +26456,7 @@
         <v>81439.57146904284</v>
       </c>
       <c r="O4" t="n">
-        <v>76371.62315556085</v>
+        <v>76371.62315556087</v>
       </c>
       <c r="P4" t="n">
         <v>76371.62315556087</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>71265.27548232877</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-114679.5534765954</v>
+        <v>-114679.5534765955</v>
       </c>
       <c r="C6" t="n">
-        <v>109020.1451074492</v>
+        <v>109020.1451074493</v>
       </c>
       <c r="D6" t="n">
         <v>109020.1451074494</v>
       </c>
       <c r="E6" t="n">
-        <v>22843.80393291965</v>
+        <v>22738.61431066482</v>
       </c>
       <c r="F6" t="n">
-        <v>173509.5575046674</v>
+        <v>173404.3678824127</v>
       </c>
       <c r="G6" t="n">
-        <v>154209.8104418357</v>
+        <v>154186.5861024531</v>
       </c>
       <c r="H6" t="n">
-        <v>183299.6196144436</v>
+        <v>183276.395275061</v>
       </c>
       <c r="I6" t="n">
-        <v>183299.6196144436</v>
+        <v>183276.395275061</v>
       </c>
       <c r="J6" t="n">
-        <v>8648.270896737478</v>
+        <v>8625.046557354823</v>
       </c>
       <c r="K6" t="n">
-        <v>183299.6196144437</v>
+        <v>183276.395275061</v>
       </c>
       <c r="L6" t="n">
-        <v>183299.6196144437</v>
+        <v>183276.395275061</v>
       </c>
       <c r="M6" t="n">
-        <v>57548.53127875301</v>
+        <v>57525.30693937034</v>
       </c>
       <c r="N6" t="n">
-        <v>183299.6196144437</v>
+        <v>183276.395275061</v>
       </c>
       <c r="O6" t="n">
-        <v>173509.5575046673</v>
+        <v>173404.3678824127</v>
       </c>
       <c r="P6" t="n">
-        <v>173509.5575046673</v>
+        <v>173404.3678824128</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1172.126241485671</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778135</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778135</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778135</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>328.3742120882331</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>156.7630129679818</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.766182674437</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>212.1323395461472</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3.329665100429963</v>
       </c>
       <c r="C5" t="n">
-        <v>41.72273759788624</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>109.3985407791396</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>298.2998601569337</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>309.7003062363585</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>22.23190701435009</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -30228,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-7.473513743199331e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30449,7 +30449,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
     </row>
     <row r="41">
@@ -34704,7 +34704,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34716,7 +34716,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158822</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35184,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35345,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35415,16 +35415,16 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>713.2395913281071</v>
       </c>
       <c r="N11" t="n">
-        <v>809.0782778761404</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.0365653694989021</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>733.6806231366373</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>162.8103194923613</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -36129,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36600,22 +36600,22 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>312.1854988754994</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36676,7 +36676,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36691,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465014</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36855,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37004,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
       </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37311,22 +37311,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>922.699389992646</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>661.3192390158824</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>259.3095102562272</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.319239015882</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>508.5520268415439</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
